--- a/wzrv/expdata/2018.xlsx
+++ b/wzrv/expdata/2018.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B9DF0F-4C29-3647-AB21-A8B57829C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFC6FA1-2109-F745-A85C-6CE0BE20CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33520" yWindow="2700" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -81,7 +90,7 @@
     <t>sig</t>
   </si>
   <si>
-    <t>syst_c</t>
+    <t>syst1_c</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,16 +483,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>188.4</v>
+        <v>753.6</v>
       </c>
       <c r="G2" s="1">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>3.2</v>
+        <v>12.8</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -515,16 +524,16 @@
         <v>15</v>
       </c>
       <c r="F3" s="1">
-        <v>175.3</v>
+        <v>701.2</v>
       </c>
       <c r="G3" s="1">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H3" s="1">
-        <v>3.6</v>
+        <v>14.4</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -556,16 +565,16 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>151.30000000000001</v>
+        <v>605.20000000000005</v>
       </c>
       <c r="G4" s="1">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H4" s="1">
-        <v>2.6</v>
+        <v>10.4</v>
       </c>
       <c r="I4" s="1">
-        <v>2.6</v>
+        <v>10.4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -597,16 +606,16 @@
         <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>120.3</v>
+        <v>481.2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -638,16 +647,16 @@
         <v>15</v>
       </c>
       <c r="F6" s="1">
-        <v>92.4</v>
+        <v>369.6</v>
       </c>
       <c r="G6" s="1">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H6" s="1">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="I6" s="1">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -679,16 +688,16 @@
         <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>60.4</v>
+        <v>241.6</v>
       </c>
       <c r="G7" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
@@ -720,16 +729,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="1">
-        <v>58.8</v>
+        <v>117.6</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
@@ -761,16 +770,16 @@
         <v>15</v>
       </c>
       <c r="F9" s="1">
-        <v>14.1</v>
+        <v>28.2</v>
       </c>
       <c r="G9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
@@ -802,16 +811,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1">
-        <v>108.9</v>
+        <v>435.6</v>
       </c>
       <c r="G10" s="1">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H10" s="1">
-        <v>2.4</v>
+        <v>9.6</v>
       </c>
       <c r="I10" s="1">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
@@ -843,16 +852,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="1">
-        <v>102.8</v>
+        <v>411.2</v>
       </c>
       <c r="G11" s="1">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H11" s="1">
-        <v>2.2000000000000002</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I11" s="1">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
@@ -884,16 +893,16 @@
         <v>16</v>
       </c>
       <c r="F12" s="1">
-        <v>94.2</v>
+        <v>376.8</v>
       </c>
       <c r="G12" s="1">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H12" s="1">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="I12" s="1">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
@@ -925,16 +934,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="1">
-        <v>86.7</v>
+        <v>346.8</v>
       </c>
       <c r="G13" s="1">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13" s="1">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="I13" s="1">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
@@ -966,16 +975,16 @@
         <v>16</v>
       </c>
       <c r="F14" s="1">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="G14" s="1">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H14" s="1">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="I14" s="1">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
@@ -1007,16 +1016,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="1">
-        <v>67.2</v>
+        <v>268.8</v>
       </c>
       <c r="G15" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="I15" s="1">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
@@ -1048,16 +1057,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="1">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H16" s="1">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="I16" s="1">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
@@ -1089,16 +1098,16 @@
         <v>16</v>
       </c>
       <c r="F17" s="1">
-        <v>42.9</v>
+        <v>85.8</v>
       </c>
       <c r="G17" s="1">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H17" s="1">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="I17" s="1">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>

--- a/wzrv/expdata/2018.xlsx
+++ b/wzrv/expdata/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFC6FA1-2109-F745-A85C-6CE0BE20CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C0A6F-D421-6749-9F0A-0B68F52661AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33520" yWindow="2700" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="900" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -90,7 +87,10 @@
     <t>sig</t>
   </si>
   <si>
-    <t>syst1_c</t>
+    <t>syst_c</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,22 +448,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -480,7 +480,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>753.6</v>
@@ -495,16 +495,16 @@
         <v>12.8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>701.2</v>
@@ -536,16 +536,16 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>605.20000000000005</v>
@@ -577,16 +577,16 @@
         <v>10.4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>481.2</v>
@@ -618,16 +618,16 @@
         <v>8.4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>369.6</v>
@@ -659,16 +659,16 @@
         <v>6.4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>241.6</v>
@@ -700,16 +700,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>117.6</v>
@@ -741,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>28.2</v>
@@ -782,16 +782,16 @@
         <v>0.4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>435.6</v>
@@ -823,16 +823,16 @@
         <v>7.6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>411.2</v>
@@ -864,16 +864,16 @@
         <v>7.2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>376.8</v>
@@ -905,16 +905,16 @@
         <v>6.4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>346.8</v>
@@ -946,16 +946,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -972,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1">
         <v>316</v>
@@ -987,16 +987,16 @@
         <v>5.6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
         <v>268.8</v>
@@ -1028,16 +1028,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>188</v>
@@ -1069,16 +1069,16 @@
         <v>3.2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>85.8</v>
@@ -1110,16 +1110,16 @@
         <v>1.4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
